--- a/Symphony/2020/September/All Details/30.09.2020/MC Bank Statement Sep--2020.xlsx
+++ b/Symphony/2020/September/All Details/30.09.2020/MC Bank Statement Sep--2020.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\Symphony\2020\September\All Details\30.09.2020\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sep 2020" sheetId="7" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="Balance Transfer" sheetId="14" r:id="rId3"/>
     <sheet name="Expence" sheetId="15" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +37,7 @@
     <author>LENOVO</author>
   </authors>
   <commentList>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F21" authorId="0">
+    <comment ref="F21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D29" authorId="0">
+    <comment ref="D29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H29" authorId="0">
+    <comment ref="H29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -672,9 +677,6 @@
     <t>House Rent</t>
   </si>
   <si>
-    <t>Etc</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
@@ -818,13 +820,16 @@
   <si>
     <t>A=Sweet Telecom</t>
   </si>
+  <si>
+    <t>1% Less</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="52">
     <font>
@@ -2142,14 +2147,14 @@
     <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -3107,18 +3112,54 @@
     <xf numFmtId="2" fontId="39" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="43" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="43" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="43" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="35" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="35" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3129,42 +3170,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="43" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="43" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="43" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="35" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="35" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3258,7 +3263,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3270,7 +3275,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3293,14 +3298,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3337,7 +3342,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3349,7 +3354,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3372,14 +3377,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3490,7 +3495,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3522,9 +3527,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3556,6 +3562,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3731,7 +3738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
@@ -3920,7 +3927,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="35"/>
       <c r="B12" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C12" s="39">
         <v>800000</v>
@@ -3939,7 +3946,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="35"/>
       <c r="B13" s="40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C13" s="39">
         <v>0</v>
@@ -3958,7 +3965,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="35"/>
       <c r="B14" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C14" s="39">
         <v>2000000</v>
@@ -3977,7 +3984,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="35"/>
       <c r="B15" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="39">
         <v>450000</v>
@@ -3996,7 +4003,7 @@
     <row r="16" spans="1:8">
       <c r="A16" s="35"/>
       <c r="B16" s="40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="39">
         <v>200000</v>
@@ -4015,7 +4022,7 @@
     <row r="17" spans="1:8">
       <c r="A17" s="35"/>
       <c r="B17" s="40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C17" s="39">
         <v>790000</v>
@@ -4034,7 +4041,7 @@
     <row r="18" spans="1:8">
       <c r="A18" s="35"/>
       <c r="B18" s="40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C18" s="39">
         <v>850000</v>
@@ -4053,7 +4060,7 @@
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="35"/>
       <c r="B19" s="40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C19" s="39">
         <v>0</v>
@@ -4072,7 +4079,7 @@
     <row r="20" spans="1:8">
       <c r="A20" s="35"/>
       <c r="B20" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C20" s="39">
         <v>2400000</v>
@@ -4091,7 +4098,7 @@
     <row r="21" spans="1:8">
       <c r="A21" s="35"/>
       <c r="B21" s="40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C21" s="39">
         <v>618000</v>
@@ -4110,7 +4117,7 @@
     <row r="22" spans="1:8">
       <c r="A22" s="35"/>
       <c r="B22" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C22" s="39">
         <v>840000</v>
@@ -4129,7 +4136,7 @@
     <row r="23" spans="1:8">
       <c r="A23" s="35"/>
       <c r="B23" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C23" s="39">
         <v>785000</v>
@@ -4148,7 +4155,7 @@
     <row r="24" spans="1:8">
       <c r="A24" s="35"/>
       <c r="B24" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C24" s="39">
         <v>620000</v>
@@ -4167,7 +4174,7 @@
     <row r="25" spans="1:8">
       <c r="A25" s="35"/>
       <c r="B25" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C25" s="39">
         <v>0</v>
@@ -4186,7 +4193,7 @@
     <row r="26" spans="1:8">
       <c r="A26" s="35"/>
       <c r="B26" s="40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C26" s="39">
         <v>1130000</v>
@@ -4205,7 +4212,7 @@
     <row r="27" spans="1:8">
       <c r="A27" s="35"/>
       <c r="B27" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C27" s="39">
         <v>360000</v>
@@ -4224,7 +4231,7 @@
     <row r="28" spans="1:8">
       <c r="A28" s="35"/>
       <c r="B28" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C28" s="39">
         <v>660000</v>
@@ -4243,7 +4250,7 @@
     <row r="29" spans="1:8">
       <c r="A29" s="35"/>
       <c r="B29" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C29" s="39">
         <v>900000</v>
@@ -4262,7 +4269,7 @@
     <row r="30" spans="1:8">
       <c r="A30" s="35"/>
       <c r="B30" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C30" s="39">
         <v>600000</v>
@@ -4281,7 +4288,7 @@
     <row r="31" spans="1:8">
       <c r="A31" s="35"/>
       <c r="B31" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C31" s="54">
         <v>22970</v>
@@ -4294,7 +4301,7 @@
         <v>2631844</v>
       </c>
       <c r="F31" s="297" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="35"/>
@@ -4302,7 +4309,7 @@
     <row r="32" spans="1:8">
       <c r="A32" s="35"/>
       <c r="B32" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C32" s="39">
         <v>1490000</v>
@@ -4321,7 +4328,7 @@
     <row r="33" spans="1:8">
       <c r="A33" s="35"/>
       <c r="B33" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C33" s="39">
         <v>550000</v>
@@ -4340,7 +4347,7 @@
     <row r="34" spans="1:8">
       <c r="A34" s="35"/>
       <c r="B34" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C34" s="39">
         <v>540000</v>
@@ -4359,7 +4366,7 @@
     <row r="35" spans="1:8">
       <c r="A35" s="35"/>
       <c r="B35" s="40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C35" s="39">
         <v>640000</v>
@@ -4958,13 +4965,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AC222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -4993,7 +5000,7 @@
     </row>
     <row r="2" spans="1:29" ht="23.25">
       <c r="A2" s="303" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B2" s="304"/>
       <c r="C2" s="304"/>
@@ -5512,7 +5519,7 @@
     </row>
     <row r="16" spans="1:29" ht="21.75">
       <c r="A16" s="80" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B16" s="100">
         <v>51435</v>
@@ -10669,7 +10676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI246"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -11107,7 +11114,7 @@
     </row>
     <row r="7" spans="1:61" ht="12.6" customHeight="1">
       <c r="A7" s="119" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B7" s="120">
         <v>1199745</v>
@@ -11183,7 +11190,7 @@
     </row>
     <row r="8" spans="1:61" ht="12.6" customHeight="1">
       <c r="A8" s="119" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B8" s="120">
         <v>850210</v>
@@ -11259,7 +11266,7 @@
     </row>
     <row r="9" spans="1:61" ht="12" customHeight="1">
       <c r="A9" s="119" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B9" s="120">
         <v>382520</v>
@@ -11335,7 +11342,7 @@
     </row>
     <row r="10" spans="1:61" ht="12.6" customHeight="1">
       <c r="A10" s="119" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B10" s="120">
         <v>240040</v>
@@ -11359,7 +11366,7 @@
         <v>705</v>
       </c>
       <c r="J10" s="118" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K10" s="110"/>
       <c r="L10" s="130"/>
@@ -11415,7 +11422,7 @@
     </row>
     <row r="11" spans="1:61" ht="12.6" customHeight="1">
       <c r="A11" s="119" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B11" s="120">
         <v>808630</v>
@@ -11439,7 +11446,7 @@
         <v>7525</v>
       </c>
       <c r="J11" s="118" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K11" s="110"/>
       <c r="L11" s="132"/>
@@ -11495,7 +11502,7 @@
     </row>
     <row r="12" spans="1:61" ht="12.6" customHeight="1">
       <c r="A12" s="119" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B12" s="120">
         <v>986900</v>
@@ -11519,7 +11526,7 @@
         <v>7345</v>
       </c>
       <c r="J12" s="118" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K12" s="110"/>
       <c r="L12" s="109"/>
@@ -11575,7 +11582,7 @@
     </row>
     <row r="13" spans="1:61" ht="12.6" customHeight="1">
       <c r="A13" s="119" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B13" s="120">
         <v>1155210</v>
@@ -11651,7 +11658,7 @@
     </row>
     <row r="14" spans="1:61" ht="12.6" customHeight="1">
       <c r="A14" s="119" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B14" s="120">
         <v>1371780</v>
@@ -11727,7 +11734,7 @@
     </row>
     <row r="15" spans="1:61" ht="12.6" customHeight="1">
       <c r="A15" s="119" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B15" s="120">
         <v>551970</v>
@@ -11803,7 +11810,7 @@
     </row>
     <row r="16" spans="1:61" ht="12.6" customHeight="1">
       <c r="A16" s="119" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B16" s="120">
         <v>749480</v>
@@ -11879,7 +11886,7 @@
     </row>
     <row r="17" spans="1:61" ht="12.6" customHeight="1">
       <c r="A17" s="119" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B17" s="120">
         <v>864320</v>
@@ -11955,7 +11962,7 @@
     </row>
     <row r="18" spans="1:61" ht="12.6" customHeight="1">
       <c r="A18" s="119" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B18" s="120">
         <v>680700</v>
@@ -12031,7 +12038,7 @@
     </row>
     <row r="19" spans="1:61" ht="12.6" customHeight="1">
       <c r="A19" s="119" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B19" s="120">
         <v>362960</v>
@@ -12107,7 +12114,7 @@
     </row>
     <row r="20" spans="1:61" ht="12.6" customHeight="1">
       <c r="A20" s="119" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B20" s="120">
         <v>882300</v>
@@ -12183,7 +12190,7 @@
     </row>
     <row r="21" spans="1:61" ht="12.6" customHeight="1">
       <c r="A21" s="119" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B21" s="120">
         <v>406630</v>
@@ -12259,7 +12266,7 @@
     </row>
     <row r="22" spans="1:61" ht="12.6" customHeight="1">
       <c r="A22" s="119" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B22" s="120">
         <v>653950</v>
@@ -12335,7 +12342,7 @@
     </row>
     <row r="23" spans="1:61" ht="12.6" customHeight="1">
       <c r="A23" s="119" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B23" s="120">
         <v>853860</v>
@@ -12411,7 +12418,7 @@
     </row>
     <row r="24" spans="1:61" ht="12.6" customHeight="1">
       <c r="A24" s="119" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B24" s="120">
         <v>603760</v>
@@ -12487,7 +12494,7 @@
     </row>
     <row r="25" spans="1:61" ht="12.6" customHeight="1">
       <c r="A25" s="119" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B25" s="120">
         <v>854330</v>
@@ -12563,7 +12570,7 @@
     </row>
     <row r="26" spans="1:61" ht="12.6" customHeight="1">
       <c r="A26" s="119" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B26" s="120">
         <v>688475</v>
@@ -12639,7 +12646,7 @@
     </row>
     <row r="27" spans="1:61" ht="12.6" customHeight="1">
       <c r="A27" s="119" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B27" s="120">
         <v>530130</v>
@@ -12715,7 +12722,7 @@
     </row>
     <row r="28" spans="1:61" ht="12.6" customHeight="1">
       <c r="A28" s="119" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B28" s="120">
         <v>596175</v>
@@ -12791,7 +12798,7 @@
     </row>
     <row r="29" spans="1:61" ht="12.6" customHeight="1">
       <c r="A29" s="119" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B29" s="120">
         <v>680950</v>
@@ -12867,7 +12874,7 @@
     </row>
     <row r="30" spans="1:61" ht="12.6" customHeight="1">
       <c r="A30" s="119" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B30" s="120">
         <v>804345</v>
@@ -13379,7 +13386,7 @@
         <v>5930</v>
       </c>
       <c r="D37" s="113" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E37" s="126"/>
       <c r="F37" s="121"/>
@@ -13521,7 +13528,7 @@
         <v>5000</v>
       </c>
       <c r="D39" s="160" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E39" s="125"/>
       <c r="F39" s="121"/>
@@ -13592,7 +13599,7 @@
         <v>7300</v>
       </c>
       <c r="D40" s="160" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E40" s="125"/>
       <c r="F40" s="121"/>
@@ -13663,7 +13670,7 @@
         <v>10000</v>
       </c>
       <c r="D41" s="113" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E41" s="164"/>
       <c r="F41" s="121"/>
@@ -13795,16 +13802,16 @@
     </row>
     <row r="43" spans="1:61" ht="12.6" customHeight="1">
       <c r="A43" s="294" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B43" s="113" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C43" s="120">
         <v>9300</v>
       </c>
       <c r="D43" s="113" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E43" s="126"/>
       <c r="F43" s="321" t="s">
@@ -14137,7 +14144,7 @@
         <v>238485</v>
       </c>
       <c r="D48" s="187" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E48" s="125"/>
       <c r="F48" s="149"/>
@@ -14341,7 +14348,7 @@
         <v>58450</v>
       </c>
       <c r="D51" s="193" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E51" s="125"/>
       <c r="F51" s="117"/>
@@ -14410,7 +14417,7 @@
         <v>187000</v>
       </c>
       <c r="D52" s="185" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E52" s="125"/>
       <c r="F52" s="149"/>
@@ -14479,7 +14486,7 @@
         <v>381715</v>
       </c>
       <c r="D53" s="196" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E53" s="125"/>
       <c r="F53" s="118"/>
@@ -14548,7 +14555,7 @@
         <v>190615</v>
       </c>
       <c r="D54" s="185" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E54" s="125"/>
       <c r="F54" s="149"/>
@@ -14610,14 +14617,14 @@
     </row>
     <row r="55" spans="1:61" ht="12" customHeight="1">
       <c r="A55" s="194" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B55" s="190"/>
       <c r="C55" s="189">
         <v>14000</v>
       </c>
       <c r="D55" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E55" s="125"/>
       <c r="F55" s="117"/>
@@ -14679,14 +14686,14 @@
     </row>
     <row r="56" spans="1:61" ht="12" customHeight="1">
       <c r="A56" s="192" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B56" s="117"/>
       <c r="C56" s="189">
         <v>4600</v>
       </c>
       <c r="D56" s="193" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E56" s="125"/>
       <c r="F56" s="117"/>
@@ -14748,14 +14755,14 @@
     </row>
     <row r="57" spans="1:61" ht="12" customHeight="1">
       <c r="A57" s="192" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B57" s="117"/>
       <c r="C57" s="189">
         <v>15000</v>
       </c>
       <c r="D57" s="193" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E57" s="125"/>
       <c r="F57" s="117"/>
@@ -14817,14 +14824,14 @@
     </row>
     <row r="58" spans="1:61" ht="12" customHeight="1">
       <c r="A58" s="192" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B58" s="117"/>
       <c r="C58" s="189">
         <v>9600</v>
       </c>
       <c r="D58" s="193" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E58" s="125"/>
       <c r="F58" s="118"/>
@@ -15096,7 +15103,7 @@
         <v>51388</v>
       </c>
       <c r="D62" s="196" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E62" s="134"/>
       <c r="F62" s="309" t="s">
@@ -15255,7 +15262,7 @@
         <v>48710</v>
       </c>
       <c r="D64" s="196" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E64" s="125"/>
       <c r="F64" s="205"/>
@@ -15337,7 +15344,7 @@
         <v>26372</v>
       </c>
       <c r="D65" s="196" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E65" s="125"/>
       <c r="F65" s="201"/>
@@ -15499,7 +15506,7 @@
         <v>20105</v>
       </c>
       <c r="D67" s="196" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E67" s="125"/>
       <c r="F67" s="201"/>
@@ -15661,7 +15668,7 @@
         <v>24006</v>
       </c>
       <c r="D69" s="196" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E69" s="110"/>
       <c r="F69" s="201"/>
@@ -16069,7 +16076,7 @@
         <v>19000</v>
       </c>
       <c r="D74" s="193" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E74" s="126"/>
       <c r="F74" s="208"/>
@@ -16151,7 +16158,7 @@
         <v>6000</v>
       </c>
       <c r="D75" s="193" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E75" s="125"/>
       <c r="F75" s="208"/>
@@ -16460,14 +16467,14 @@
     </row>
     <row r="79" spans="1:61" ht="12.75" customHeight="1">
       <c r="A79" s="192" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B79" s="190"/>
       <c r="C79" s="189">
         <v>26715</v>
       </c>
       <c r="D79" s="190" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E79" s="125"/>
       <c r="F79" s="208"/>
@@ -16700,14 +16707,14 @@
     </row>
     <row r="82" spans="1:61" ht="12.75" customHeight="1">
       <c r="A82" s="192" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B82" s="117"/>
       <c r="C82" s="189">
         <v>11000</v>
       </c>
       <c r="D82" s="193" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E82" s="126"/>
       <c r="F82" s="212"/>
@@ -16860,14 +16867,14 @@
     </row>
     <row r="84" spans="1:61" ht="12.75" customHeight="1">
       <c r="A84" s="192" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B84" s="117"/>
       <c r="C84" s="189">
         <v>51435</v>
       </c>
       <c r="D84" s="193" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E84" s="126"/>
       <c r="F84" s="211"/>
@@ -16949,7 +16956,7 @@
         <v>2000</v>
       </c>
       <c r="D85" s="193" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E85" s="126"/>
       <c r="F85" s="211"/>
@@ -17022,14 +17029,14 @@
     </row>
     <row r="86" spans="1:61" ht="12.75" customHeight="1">
       <c r="A86" s="192" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B86" s="117"/>
       <c r="C86" s="189">
         <v>5000</v>
       </c>
       <c r="D86" s="193" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E86" s="126"/>
       <c r="F86" s="208"/>
@@ -17180,14 +17187,14 @@
     </row>
     <row r="88" spans="1:61" ht="12.75" customHeight="1">
       <c r="A88" s="192" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B88" s="117"/>
       <c r="C88" s="189">
         <v>3445</v>
       </c>
       <c r="D88" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E88" s="125"/>
       <c r="F88" s="201"/>
@@ -17338,14 +17345,14 @@
     </row>
     <row r="90" spans="1:61" ht="12.6" customHeight="1">
       <c r="A90" s="192" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B90" s="117"/>
       <c r="C90" s="189">
         <v>5000</v>
       </c>
       <c r="D90" s="193" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E90" s="125"/>
       <c r="F90" s="208"/>
@@ -17486,16 +17493,16 @@
     </row>
     <row r="92" spans="1:61">
       <c r="A92" s="192" t="s">
+        <v>222</v>
+      </c>
+      <c r="B92" s="117" t="s">
         <v>223</v>
-      </c>
-      <c r="B92" s="117" t="s">
-        <v>224</v>
       </c>
       <c r="C92" s="189">
         <v>100</v>
       </c>
       <c r="D92" s="193" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F92" s="208"/>
       <c r="G92" s="202" t="s">
@@ -18253,7 +18260,7 @@
         <v>4070</v>
       </c>
       <c r="D102" s="190" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F102" s="212"/>
       <c r="G102" s="206" t="s">
@@ -18322,7 +18329,7 @@
     </row>
     <row r="103" spans="1:61">
       <c r="A103" s="215" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B103" s="216"/>
       <c r="C103" s="189">
@@ -18865,7 +18872,7 @@
         <v>24000</v>
       </c>
       <c r="D110" s="190" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F110" s="212"/>
       <c r="G110" s="206" t="s">
@@ -21860,14 +21867,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z321"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="14" topLeftCell="K27" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="10" ySplit="14" topLeftCell="K29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="T38" sqref="T38"/>
+      <selection pane="bottomRight" activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -21878,94 +21885,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="334" t="s">
+      <c r="A1" s="326" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="334"/>
-      <c r="C1" s="334"/>
-      <c r="D1" s="334"/>
-      <c r="E1" s="334"/>
-      <c r="F1" s="334"/>
-      <c r="G1" s="334"/>
-      <c r="H1" s="334"/>
-      <c r="I1" s="334"/>
-      <c r="J1" s="334"/>
-      <c r="K1" s="334"/>
-      <c r="L1" s="334"/>
-      <c r="M1" s="334"/>
-      <c r="N1" s="334"/>
-      <c r="O1" s="334"/>
-      <c r="P1" s="334"/>
-      <c r="Q1" s="334"/>
-      <c r="R1" s="334"/>
-      <c r="S1" s="334"/>
+      <c r="B1" s="326"/>
+      <c r="C1" s="326"/>
+      <c r="D1" s="326"/>
+      <c r="E1" s="326"/>
+      <c r="F1" s="326"/>
+      <c r="G1" s="326"/>
+      <c r="H1" s="326"/>
+      <c r="I1" s="326"/>
+      <c r="J1" s="326"/>
+      <c r="K1" s="326"/>
+      <c r="L1" s="326"/>
+      <c r="M1" s="326"/>
+      <c r="N1" s="326"/>
+      <c r="O1" s="326"/>
+      <c r="P1" s="326"/>
+      <c r="Q1" s="326"/>
+      <c r="R1" s="326"/>
+      <c r="S1" s="326"/>
     </row>
     <row r="2" spans="1:26" s="244" customFormat="1" ht="18">
-      <c r="A2" s="335" t="s">
+      <c r="A2" s="327" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="335"/>
-      <c r="C2" s="335"/>
-      <c r="D2" s="335"/>
-      <c r="E2" s="335"/>
-      <c r="F2" s="335"/>
-      <c r="G2" s="335"/>
-      <c r="H2" s="335"/>
-      <c r="I2" s="335"/>
-      <c r="J2" s="335"/>
-      <c r="K2" s="335"/>
-      <c r="L2" s="335"/>
-      <c r="M2" s="335"/>
-      <c r="N2" s="335"/>
-      <c r="O2" s="335"/>
-      <c r="P2" s="335"/>
-      <c r="Q2" s="335"/>
-      <c r="R2" s="335"/>
-      <c r="S2" s="335"/>
+      <c r="B2" s="327"/>
+      <c r="C2" s="327"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="327"/>
+      <c r="G2" s="327"/>
+      <c r="H2" s="327"/>
+      <c r="I2" s="327"/>
+      <c r="J2" s="327"/>
+      <c r="K2" s="327"/>
+      <c r="L2" s="327"/>
+      <c r="M2" s="327"/>
+      <c r="N2" s="327"/>
+      <c r="O2" s="327"/>
+      <c r="P2" s="327"/>
+      <c r="Q2" s="327"/>
+      <c r="R2" s="327"/>
+      <c r="S2" s="327"/>
     </row>
     <row r="3" spans="1:26" s="244" customFormat="1">
-      <c r="A3" s="336"/>
-      <c r="B3" s="336"/>
-      <c r="C3" s="336"/>
-      <c r="D3" s="336"/>
-      <c r="E3" s="336"/>
-      <c r="F3" s="336"/>
-      <c r="G3" s="336"/>
-      <c r="H3" s="336"/>
-      <c r="I3" s="336"/>
-      <c r="J3" s="336"/>
-      <c r="K3" s="336"/>
-      <c r="L3" s="336"/>
-      <c r="M3" s="336"/>
-      <c r="N3" s="336"/>
-      <c r="O3" s="336"/>
-      <c r="P3" s="336"/>
-      <c r="Q3" s="336"/>
-      <c r="R3" s="336"/>
-      <c r="S3" s="336"/>
+      <c r="A3" s="328"/>
+      <c r="B3" s="328"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="328"/>
+      <c r="F3" s="328"/>
+      <c r="G3" s="328"/>
+      <c r="H3" s="328"/>
+      <c r="I3" s="328"/>
+      <c r="J3" s="328"/>
+      <c r="K3" s="328"/>
+      <c r="L3" s="328"/>
+      <c r="M3" s="328"/>
+      <c r="N3" s="328"/>
+      <c r="O3" s="328"/>
+      <c r="P3" s="328"/>
+      <c r="Q3" s="328"/>
+      <c r="R3" s="328"/>
+      <c r="S3" s="328"/>
     </row>
     <row r="4" spans="1:26" s="245" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A4" s="337" t="s">
+      <c r="A4" s="329" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="338"/>
-      <c r="C4" s="338"/>
-      <c r="D4" s="338"/>
-      <c r="E4" s="338"/>
-      <c r="F4" s="338"/>
-      <c r="G4" s="338"/>
-      <c r="H4" s="338"/>
-      <c r="I4" s="338"/>
-      <c r="J4" s="338"/>
-      <c r="K4" s="338"/>
-      <c r="L4" s="338"/>
-      <c r="M4" s="338"/>
-      <c r="N4" s="338"/>
-      <c r="O4" s="338"/>
-      <c r="P4" s="338"/>
-      <c r="Q4" s="338"/>
-      <c r="R4" s="338"/>
-      <c r="S4" s="339"/>
+      <c r="B4" s="330"/>
+      <c r="C4" s="330"/>
+      <c r="D4" s="330"/>
+      <c r="E4" s="330"/>
+      <c r="F4" s="330"/>
+      <c r="G4" s="330"/>
+      <c r="H4" s="330"/>
+      <c r="I4" s="330"/>
+      <c r="J4" s="330"/>
+      <c r="K4" s="330"/>
+      <c r="L4" s="330"/>
+      <c r="M4" s="330"/>
+      <c r="N4" s="330"/>
+      <c r="O4" s="330"/>
+      <c r="P4" s="330"/>
+      <c r="Q4" s="330"/>
+      <c r="R4" s="330"/>
+      <c r="S4" s="331"/>
       <c r="U4" s="126"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
@@ -21974,59 +21981,59 @@
       <c r="Z4" s="29"/>
     </row>
     <row r="5" spans="1:26" s="247" customFormat="1">
-      <c r="A5" s="340" t="s">
+      <c r="A5" s="332" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="342" t="s">
+      <c r="B5" s="334" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="328" t="s">
+      <c r="C5" s="336" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="328" t="s">
+      <c r="D5" s="336" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="328" t="s">
+      <c r="E5" s="336" t="s">
         <v>166</v>
       </c>
-      <c r="F5" s="328" t="s">
+      <c r="F5" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="G5" s="328" t="s">
+      <c r="G5" s="336" t="s">
         <v>168</v>
       </c>
-      <c r="H5" s="328" t="s">
+      <c r="H5" s="336" t="s">
         <v>169</v>
       </c>
-      <c r="I5" s="328" t="s">
+      <c r="I5" s="336" t="s">
         <v>170</v>
       </c>
-      <c r="J5" s="328" t="s">
+      <c r="J5" s="336" t="s">
         <v>171</v>
       </c>
-      <c r="K5" s="328" t="s">
+      <c r="K5" s="336" t="s">
         <v>172</v>
       </c>
-      <c r="L5" s="328" t="s">
+      <c r="L5" s="336" t="s">
         <v>173</v>
       </c>
-      <c r="M5" s="328" t="s">
+      <c r="M5" s="336" t="s">
         <v>174</v>
       </c>
-      <c r="N5" s="328" t="s">
+      <c r="N5" s="336" t="s">
         <v>175</v>
       </c>
-      <c r="O5" s="330" t="s">
+      <c r="O5" s="342" t="s">
         <v>176</v>
       </c>
-      <c r="P5" s="332" t="s">
+      <c r="P5" s="344" t="s">
         <v>177</v>
       </c>
-      <c r="Q5" s="326" t="s">
+      <c r="Q5" s="340" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="344" t="s">
-        <v>178</v>
+      <c r="R5" s="338" t="s">
+        <v>226</v>
       </c>
       <c r="S5" s="246" t="s">
         <v>4</v>
@@ -22038,26 +22045,26 @@
       <c r="Y5" s="249"/>
     </row>
     <row r="6" spans="1:26" s="247" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A6" s="341"/>
-      <c r="B6" s="343"/>
-      <c r="C6" s="329"/>
-      <c r="D6" s="329"/>
-      <c r="E6" s="329"/>
-      <c r="F6" s="329"/>
-      <c r="G6" s="329"/>
-      <c r="H6" s="329"/>
-      <c r="I6" s="329"/>
-      <c r="J6" s="329"/>
-      <c r="K6" s="329"/>
-      <c r="L6" s="329"/>
-      <c r="M6" s="329"/>
-      <c r="N6" s="329"/>
-      <c r="O6" s="331"/>
-      <c r="P6" s="333"/>
-      <c r="Q6" s="327"/>
-      <c r="R6" s="345"/>
+      <c r="A6" s="333"/>
+      <c r="B6" s="335"/>
+      <c r="C6" s="337"/>
+      <c r="D6" s="337"/>
+      <c r="E6" s="337"/>
+      <c r="F6" s="337"/>
+      <c r="G6" s="337"/>
+      <c r="H6" s="337"/>
+      <c r="I6" s="337"/>
+      <c r="J6" s="337"/>
+      <c r="K6" s="337"/>
+      <c r="L6" s="337"/>
+      <c r="M6" s="337"/>
+      <c r="N6" s="337"/>
+      <c r="O6" s="343"/>
+      <c r="P6" s="345"/>
+      <c r="Q6" s="341"/>
+      <c r="R6" s="339"/>
       <c r="S6" s="251" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U6" s="252"/>
       <c r="V6" s="253"/>
@@ -22154,7 +22161,7 @@
     </row>
     <row r="9" spans="1:26" s="22" customFormat="1">
       <c r="A9" s="255" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B9" s="263">
         <v>1400</v>
@@ -22195,14 +22202,14 @@
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
       <c r="W9" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X9" s="48"/>
       <c r="Y9" s="5"/>
     </row>
     <row r="10" spans="1:26" s="22" customFormat="1">
       <c r="A10" s="255" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B10" s="263">
         <v>800</v>
@@ -22244,7 +22251,7 @@
     </row>
     <row r="11" spans="1:26" s="22" customFormat="1">
       <c r="A11" s="255" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B11" s="263">
         <v>500</v>
@@ -22286,7 +22293,7 @@
     </row>
     <row r="12" spans="1:26" s="22" customFormat="1">
       <c r="A12" s="255" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B12" s="263">
         <v>500</v>
@@ -22328,7 +22335,7 @@
     </row>
     <row r="13" spans="1:26" s="22" customFormat="1">
       <c r="A13" s="255" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B13" s="263">
         <v>500</v>
@@ -22374,7 +22381,7 @@
     </row>
     <row r="14" spans="1:26" s="22" customFormat="1">
       <c r="A14" s="255" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B14" s="263">
         <v>600</v>
@@ -22420,7 +22427,7 @@
     </row>
     <row r="15" spans="1:26" s="22" customFormat="1">
       <c r="A15" s="255" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B15" s="263">
         <v>1200</v>
@@ -22466,7 +22473,7 @@
     </row>
     <row r="16" spans="1:26" s="22" customFormat="1">
       <c r="A16" s="255" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B16" s="263">
         <v>1000</v>
@@ -22510,7 +22517,7 @@
     </row>
     <row r="17" spans="1:25" s="22" customFormat="1">
       <c r="A17" s="255" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B17" s="263">
         <v>700</v>
@@ -22554,7 +22561,7 @@
     </row>
     <row r="18" spans="1:25" s="22" customFormat="1">
       <c r="A18" s="255" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B18" s="263">
         <v>1150</v>
@@ -22598,7 +22605,7 @@
     </row>
     <row r="19" spans="1:25" s="22" customFormat="1">
       <c r="A19" s="255" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B19" s="263">
         <v>1900</v>
@@ -22644,7 +22651,7 @@
     </row>
     <row r="20" spans="1:25" s="22" customFormat="1">
       <c r="A20" s="255" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B20" s="263">
         <v>200</v>
@@ -22688,7 +22695,7 @@
     </row>
     <row r="21" spans="1:25" s="22" customFormat="1">
       <c r="A21" s="255" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B21" s="263">
         <v>1200</v>
@@ -22734,7 +22741,7 @@
     </row>
     <row r="22" spans="1:25" s="22" customFormat="1">
       <c r="A22" s="255" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B22" s="263">
         <v>1200</v>
@@ -22774,7 +22781,7 @@
     </row>
     <row r="23" spans="1:25" s="22" customFormat="1">
       <c r="A23" s="255" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B23" s="263">
         <v>800</v>
@@ -22812,7 +22819,7 @@
     </row>
     <row r="24" spans="1:25" s="271" customFormat="1">
       <c r="A24" s="255" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B24" s="263">
         <v>700</v>
@@ -22856,7 +22863,7 @@
     </row>
     <row r="25" spans="1:25" s="22" customFormat="1">
       <c r="A25" s="255" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B25" s="263">
         <v>700</v>
@@ -22901,7 +22908,7 @@
     </row>
     <row r="26" spans="1:25" s="271" customFormat="1">
       <c r="A26" s="255" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B26" s="263">
         <v>1100</v>
@@ -22943,7 +22950,7 @@
     </row>
     <row r="27" spans="1:25" s="22" customFormat="1">
       <c r="A27" s="255" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B27" s="263">
         <v>1000</v>
@@ -22981,7 +22988,7 @@
     </row>
     <row r="28" spans="1:25" s="22" customFormat="1">
       <c r="A28" s="255" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B28" s="263">
         <v>1500</v>
@@ -23019,7 +23026,7 @@
     </row>
     <row r="29" spans="1:25" s="22" customFormat="1">
       <c r="A29" s="255" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B29" s="263">
         <v>600</v>
@@ -23063,7 +23070,7 @@
     </row>
     <row r="30" spans="1:25" s="22" customFormat="1">
       <c r="A30" s="255" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B30" s="263">
         <v>1000</v>
@@ -23105,7 +23112,7 @@
     </row>
     <row r="31" spans="1:25" s="22" customFormat="1">
       <c r="A31" s="255" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B31" s="263">
         <v>800</v>
@@ -23153,13 +23160,13 @@
     </row>
     <row r="32" spans="1:25" s="22" customFormat="1">
       <c r="A32" s="255" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B32" s="263">
         <v>1000</v>
       </c>
       <c r="C32" s="256" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D32" s="264"/>
       <c r="E32" s="264"/>
@@ -23185,10 +23192,12 @@
         <v>10000</v>
       </c>
       <c r="Q32" s="264"/>
-      <c r="R32" s="266"/>
+      <c r="R32" s="266">
+        <v>5805</v>
+      </c>
       <c r="S32" s="260">
         <f t="shared" si="0"/>
-        <v>11740</v>
+        <v>17545</v>
       </c>
       <c r="T32" s="261"/>
     </row>
@@ -23319,7 +23328,7 @@
     </row>
     <row r="38" spans="1:20" s="244" customFormat="1" ht="13.5" thickBot="1">
       <c r="A38" s="280" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B38" s="281">
         <f>SUM(B7:B37)</f>
@@ -23387,11 +23396,11 @@
       </c>
       <c r="R38" s="283">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5805</v>
       </c>
       <c r="S38" s="284">
         <f>SUM(S7:S37)</f>
-        <v>73687</v>
+        <v>79492</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -25396,6 +25405,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -25412,12 +25427,6 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
